--- a/outputs/tables.xlsx
+++ b/outputs/tables.xlsx
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1143">
   <si>
-    <t xml:space="preserve">Adult Disability Payment from 21 March 2022 to 30 April 2024 to February 2024</t>
+    <t xml:space="preserve">Adult Disability Payment to April 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Table of Contents</t>
@@ -4578,7 +4578,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A6:J37" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="table_6" displayName="table_6" ref="A6:J37" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Month"/>
     <tableColumn id="2" name="Total "/>
@@ -4596,7 +4596,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A6:J16" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="table_7" displayName="table_7" ref="A6:J16" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Age Band"/>
     <tableColumn id="2" name="Total part 1 applications registered"/>
@@ -4614,7 +4614,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A6:J40" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="table_8" displayName="table_8" ref="A6:J40" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Local authority"/>
     <tableColumn id="2" name="Total part 1 applications registered"/>
@@ -4632,7 +4632,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A7:K39" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="table_9a" displayName="table_9a" ref="A7:K39" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" name="Processing Time by Month"/>
     <tableColumn id="2" name="Total applications processed where a part 2 application date is available"/>
@@ -4651,7 +4651,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="A42:J73" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="table_9b" displayName="table_9b" ref="A42:J73" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Processing time by month"/>
     <tableColumn id="2" name="Total applications processed where a part 2 application date is available"/>
@@ -4669,7 +4669,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A6:C42" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="table_10" displayName="table_10" ref="A6:C42" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Processing Time by Month"/>
     <tableColumn id="2" name="Total applications processed"/>
@@ -4680,7 +4680,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="A6:L99" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="table_11" displayName="table_11" ref="A6:L99" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Type of Client"/>
     <tableColumn id="2" name="Month"/>
@@ -4700,7 +4700,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A6:D40" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="table_12" displayName="table_12" ref="A6:D40" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Local Authority "/>
     <tableColumn id="2" name="Total number  of payments"/>
@@ -4712,7 +4712,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A6:B10" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="table_13" displayName="table_13" ref="A6:B10" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Year of Payment "/>
     <tableColumn id="2" name="Number of individual clients paid "/>
@@ -4722,7 +4722,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="A6:K84" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="table_14" displayName="table_14" ref="A6:K84" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" name="Type of Client"/>
     <tableColumn id="2" name="Month"/>
@@ -4741,7 +4741,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A6:K84" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="table_15" displayName="table_15" ref="A6:K84" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" name="Type of Client"/>
     <tableColumn id="2" name="Month"/>
@@ -4760,7 +4760,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A6:I84" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="table_16" displayName="table_16" ref="A6:I84" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="Type of Client"/>
     <tableColumn id="2" name="Month"/>
@@ -4777,7 +4777,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table22" displayName="Table22" ref="A6:N85" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="table_17" displayName="table_17" ref="A6:N85" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="14">
     <tableColumn id="1" name="Type of Client"/>
     <tableColumn id="2" name="Month"/>
@@ -4799,7 +4799,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table23" displayName="Table23" ref="A6:C16" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="table_18" displayName="table_18" ref="A6:C16" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Age Band"/>
     <tableColumn id="2" name="Caseload "/>
@@ -4810,7 +4810,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="A7:J76" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="table_19a" displayName="table_19a" ref="A7:J76" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Client Type"/>
     <tableColumn id="2" name="Condition Category    "/>
@@ -4828,7 +4828,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table25" displayName="Table25" ref="A79:J115" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="table_19b" displayName="table_19b" ref="A79:J115" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Client Type"/>
     <tableColumn id="2" name="Condition Category    "/>
@@ -4846,7 +4846,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table26" displayName="Table26" ref="A7:K76" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="table_20a" displayName="table_20a" ref="A7:K76" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" name="Type of Client"/>
     <tableColumn id="2" name="Condition Category    "/>
@@ -4865,7 +4865,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table27" displayName="Table27" ref="A79:K115" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="table_20b" displayName="table_20b" ref="A79:K115" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" name="Client Type"/>
     <tableColumn id="2" name="Condition Category    "/>
@@ -4884,7 +4884,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table28" displayName="Table28" ref="A7:I76" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="table_21a" displayName="table_21a" ref="A7:I76" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="Type of Client"/>
     <tableColumn id="2" name="Condition Category    "/>
@@ -4901,7 +4901,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table29" displayName="Table29" ref="A79:I115" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="table_21b" displayName="table_21b" ref="A79:I115" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" name="Client Type"/>
     <tableColumn id="2" name="Condition Category    "/>
@@ -4928,7 +4928,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table30" displayName="Table30" ref="A6:C9" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="table_22" displayName="table_22" ref="A6:C9" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Type of Client"/>
     <tableColumn id="2" name="Caseload"/>
@@ -4939,7 +4939,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table31" displayName="Table31" ref="A6:C15" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="table_23" displayName="table_23" ref="A6:C15" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Duration on Caseload"/>
     <tableColumn id="2" name="Caseload"/>
@@ -4950,7 +4950,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table32" displayName="Table32" ref="A6:C40" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="table_24" displayName="table_24" ref="A6:C40" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Local authority"/>
     <tableColumn id="2" name="Caseload"/>
@@ -4961,7 +4961,7 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table33" displayName="Table33" ref="A6:O99" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="table_25" displayName="table_25" ref="A6:O99" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="15">
     <tableColumn id="1" name="Type of Client"/>
     <tableColumn id="2" name="Month"/>
@@ -4984,7 +4984,7 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table34" displayName="Table34" ref="A6:G28" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="table_26" displayName="table_26" ref="A6:G28" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" name="Month "/>
     <tableColumn id="2" name="Number of appeals received"/>
@@ -5009,7 +5009,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A6:L37" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="table_1" displayName="table_1" ref="A6:L37" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Month"/>
     <tableColumn id="2" name="Total part 1 applications registered"/>
@@ -5029,7 +5029,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A6:H37" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="table_2" displayName="table_2" ref="A6:H37" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Month"/>
     <tableColumn id="2" name="Total"/>
@@ -5045,7 +5045,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A6:F37" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="table_3" displayName="table_3" ref="A6:F37" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" name="Month"/>
     <tableColumn id="2" name="Total"/>
@@ -5059,7 +5059,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A6:F37" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="table_4" displayName="table_4" ref="A6:F37" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" name="Month"/>
     <tableColumn id="2" name="Total"/>
@@ -5073,7 +5073,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A6:L29" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="table_5" displayName="table_5" ref="A6:L29" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Month"/>
     <tableColumn id="2" name="Total part 1 applications registered"/>
